--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE219D-37D1-4CD5-A3CC-9E17DFD53C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D763527-69EB-4222-BCB6-0266379EE019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Interviews" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Seq No</t>
   </si>
@@ -49,12 +49,30 @@
   </si>
   <si>
     <t>Do you have exp in Selenium Framework</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Answered</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,16 +113,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,134 +418,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
+        <v>44881</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -520,5 +611,6 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D763527-69EB-4222-BCB6-0266379EE019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD444902-7F37-49C5-95DE-98FB5F41F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interviews" sheetId="1" r:id="rId1"/>
+    <sheet name="JAVA" sheetId="2" r:id="rId2"/>
+    <sheet name="TestNG" sheetId="3" r:id="rId3"/>
+    <sheet name="Cucumber" sheetId="4" r:id="rId4"/>
+    <sheet name="API" sheetId="5" r:id="rId5"/>
+    <sheet name="DataBase" sheetId="6" r:id="rId6"/>
+    <sheet name="General" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Seq No</t>
   </si>
@@ -64,6 +70,105 @@
   </si>
   <si>
     <t>Feedback</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the specific cases </t>
+  </si>
+  <si>
+    <t>Focuss on the Technical aspects</t>
+  </si>
+  <si>
+    <t>Concentrate on the yourself for any cases</t>
+  </si>
+  <si>
+    <t>Avoid the distractred people and tv movies and etc</t>
+  </si>
+  <si>
+    <t>Json Path finder</t>
+  </si>
+  <si>
+    <t>https://jsonpathfinder.com/</t>
+  </si>
+  <si>
+    <t>https://jsonpath.com/</t>
+  </si>
+  <si>
+    <t>json-server students.json</t>
+  </si>
+  <si>
+    <t>Json Server to start the internal server</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>DataTypes</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Method Over loading</t>
+  </si>
+  <si>
+    <t>Method OverRidding</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>TryCatch</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Single, multi level, multiple, hyprid</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>it is used to communicate with the database server to do the different kind of operations</t>
+  </si>
+  <si>
+    <t>it is a language-Structure Query Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL installer </t>
+  </si>
+  <si>
+    <t>root
+root
+admin
+admin</t>
   </si>
 </sst>
 </file>
@@ -71,12 +176,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,19 +240,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,129 +537,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
       <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>44881</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,62 +678,69 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -613,4 +750,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221796D3-293F-434B-AA5C-857991C69670}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DEFBC9-8573-4433-AE91-332DA6902C3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB1CBE8-0C35-4EE9-A1C2-E4C79168E2CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D596C057-14C0-4CD5-8479-0CFDD6A5A50D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6C489ED1-D314-4BD8-8EB9-F1B0D18B2AF0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{77BDC65E-C1AA-4F01-AE30-E6D8D91667E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8A215C-422E-4D2A-8C24-BE12345A704D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8223EB3F-89BB-4213-B5EB-32AB56F1CF00}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>